--- a/India_cities.xlsx
+++ b/India_cities.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chiku\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chiku\Desktop\Macro\gatech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B4FFFD-AE44-43BF-88BE-074EC1014897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6732811D-5BFB-4ECB-B1E2-C46DCA2B6CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="91">
   <si>
     <t>STATE</t>
   </si>
@@ -179,9 +179,6 @@
   </si>
   <si>
     <t>Kanpur</t>
-  </si>
-  <si>
-    <t>Kerela</t>
   </si>
   <si>
     <t>Kochi</t>
@@ -856,32 +853,6 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -993,6 +964,32 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1007,19 +1004,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4E79A879-9CDB-4784-94B6-FFEB1B880A6E}" name="Table3" displayName="Table3" ref="A1:J55" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4E79A879-9CDB-4784-94B6-FFEB1B880A6E}" name="Table3" displayName="Table3" ref="A1:J55" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:J55" xr:uid="{4E79A879-9CDB-4784-94B6-FFEB1B880A6E}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{6FC72DB5-B5CB-466F-9FBE-9E35FFA4A770}" name="STATE" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{B7BFA254-49E1-4661-BC03-C4BC27C2EB84}" name="CITY" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{A3378AB3-C6BD-44AD-8EE6-2A12A23DED3D}" name="NO2" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{DBB58976-79BE-4C24-B9FC-DF7F78F9C641}" name="SO2" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{7D2C2F42-2CD3-4E3D-8E22-75DF2D2E9232}" name="PM2.5" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{1C688A70-6D88-4200-8656-301F91E06DD0}" name="CO" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{85520C81-1152-4C66-B995-CE3223F5267A}" name="Stations" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{FE655B62-6BFA-46D2-BCAB-D0147EBBED95}" name="Comments" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{1C49D718-06BC-4B7F-B038-8828A8F1A8D9}" name="Single File" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{AAECD17A-997A-405D-B6D4-3E9E2B1AB32D}" name="Two Files" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{6FC72DB5-B5CB-466F-9FBE-9E35FFA4A770}" name="STATE" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{B7BFA254-49E1-4661-BC03-C4BC27C2EB84}" name="CITY" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{A3378AB3-C6BD-44AD-8EE6-2A12A23DED3D}" name="NO2" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{DBB58976-79BE-4C24-B9FC-DF7F78F9C641}" name="SO2" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{7D2C2F42-2CD3-4E3D-8E22-75DF2D2E9232}" name="PM2.5" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{1C688A70-6D88-4200-8656-301F91E06DD0}" name="CO" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{85520C81-1152-4C66-B995-CE3223F5267A}" name="Stations" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{FE655B62-6BFA-46D2-BCAB-D0147EBBED95}" name="Comments" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{1C49D718-06BC-4B7F-B038-8828A8F1A8D9}" name="Single File" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{AAECD17A-997A-405D-B6D4-3E9E2B1AB32D}" name="Two Files" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1325,7 +1322,7 @@
   <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,19 +1354,19 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I1" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2130,10 +2127,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>8</v>
@@ -2156,10 +2153,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>8</v>
@@ -2185,7 +2182,7 @@
         <v>15</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>8</v>
@@ -2211,7 +2208,7 @@
         <v>48</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>8</v>
@@ -2234,10 +2231,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>8</v>
@@ -2263,7 +2260,7 @@
         <v>9</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>8</v>
@@ -2289,7 +2286,7 @@
         <v>13</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>8</v>
@@ -2317,7 +2314,7 @@
         <v>20</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>8</v>
@@ -2343,7 +2340,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>8</v>
@@ -2369,7 +2366,7 @@
         <v>9</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>8</v>
@@ -2395,7 +2392,7 @@
         <v>17</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>8</v>
@@ -2423,7 +2420,7 @@
         <v>20</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>8</v>
@@ -2449,7 +2446,7 @@
         <v>17</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>8</v>
@@ -2472,10 +2469,10 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>8</v>
@@ -2493,7 +2490,7 @@
         <v>40</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I44" s="5" t="s">
         <v>8</v>
@@ -2502,10 +2499,10 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>8</v>
@@ -2528,10 +2525,10 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>8</v>
@@ -2557,10 +2554,10 @@
         <v>9</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>8</v>
@@ -2583,7 +2580,7 @@
         <v>17</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>8</v>
@@ -2599,17 +2596,17 @@
         <v>7</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>8</v>
@@ -2635,7 +2632,7 @@
         <v>17</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>8</v>
@@ -2658,10 +2655,10 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>8</v>
@@ -2684,10 +2681,10 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>8</v>
@@ -2713,7 +2710,7 @@
         <v>9</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>8</v>
@@ -2736,10 +2733,10 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>8</v>
@@ -2762,10 +2759,10 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>8</v>
